--- a/03_Figures/03_Maps/Data/Unemployment/Data cleaned per country/Slovenia-cleaned.xlsx
+++ b/03_Figures/03_Maps/Data/Unemployment/Data cleaned per country/Slovenia-cleaned.xlsx
@@ -5,20 +5,29 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mhachaichi\Downloads\Unemployment rates\Data cleaned per country\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mhachaichi\Pictures\ESPON-DATA\03_Figures\03_Maps\Data\Unemployment\Data cleaned per country\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4BDF6B3-FD2D-4606-A750-EDB65D08FC1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7347C40A-545F-468F-8259-D8CC9B80F8E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14355" yWindow="1500" windowWidth="13710" windowHeight="13110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3255" yWindow="2805" windowWidth="13245" windowHeight="13110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -125,7 +134,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -184,13 +193,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -472,16 +482,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -501,7 +513,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -520,8 +532,9 @@
       <c r="F2" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H2" s="6"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -540,8 +553,9 @@
       <c r="F3" s="5">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H3" s="6"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -560,8 +574,9 @@
       <c r="F4" s="5">
         <v>6.6</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H4" s="6"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -580,8 +595,9 @@
       <c r="F5" s="5">
         <v>5.0999999999999996</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -600,8 +616,9 @@
       <c r="F6" s="5">
         <v>5.2</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -620,8 +637,9 @@
       <c r="F7" s="5">
         <v>5.2</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H7" s="6"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -640,8 +658,9 @@
       <c r="F8" s="5">
         <v>3.9</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H8" s="6"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -660,8 +679,9 @@
       <c r="F9" s="5">
         <v>3.6</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -680,8 +700,9 @@
       <c r="F10" s="5">
         <v>4.3</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -700,8 +721,9 @@
       <c r="F11" s="5">
         <v>4.3</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -720,8 +742,9 @@
       <c r="F12" s="5">
         <v>8.3000000000000007</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H12" s="6"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>1</v>
       </c>
@@ -740,8 +763,9 @@
       <c r="F13" s="5">
         <v>3.1</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>1</v>
       </c>
@@ -760,6 +784,7 @@
       <c r="F14" s="5">
         <v>6.2</v>
       </c>
+      <c r="H14" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
